--- a/public/exampleFile/UpLoadDormitoryFinancialExample.xlsx
+++ b/public/exampleFile/UpLoadDormitoryFinancialExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Node.js\DormitoryFinance\public\exampleFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B7ADE4A-158B-43B4-BC59-7DCA926201C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A8B9E2-9D08-4BCC-942D-EEAEEC28146F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="222">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,30 +69,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备（夏浩，谢如鹏）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍费储备(谢涛)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍费储备（辛灿佳）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>两大瓶洗衣液</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备（夏浩，谢涛）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍费储备（谢如鹏）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>电火锅</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -133,10 +113,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备（夏浩，谢如鹏,谢涛）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>洗衣液（一瓶六袋）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -149,14 +125,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>加买泡面（谢如鹏）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍费储备（夏浩，谢如鹏，谢涛，辛灿佳*100）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>哑铃两只（共30kg）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -169,18 +137,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>个人夜宵（谢涛，辛灿佳）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人夜宵（辛灿佳）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人夜宵（谢涛）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>实习报告四份+个人优秀入党申请</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -189,38 +145,18 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备（夏浩，谢涛，辛灿佳）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人夜宵（谢涛，辛灿佳：糖水；夏浩：炒面）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>可乐（谢如鹏请客）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>个人夜宵（夏浩，谢涛，辛灿佳）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>洗衣机水管加长</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>个人夜宵（夏浩，谢涛）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>实习日志</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>个人夜宵（夏浩，谢如鹏）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>宿舍费储备（谢涛，辛灿佳，夏浩）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -233,10 +169,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备（谢涛，谢如鹏，夏浩）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>洗衣粉+可乐</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -249,19 +181,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>个人夜宵（夏浩，辛灿佳）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人夜宵（夏浩，辛灿佳，谢涛）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>肥宅快乐水</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍费储备（谢涛，夏浩）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -313,23 +233,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备（辛灿佳，夏浩）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍费储备（谢涛）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>热水卡办理</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>集体夜宵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍费储备（谢如鹏，夏浩）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -350,10 +258,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>个人夜宵(谢涛)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>热水费充值</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -362,10 +266,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备(辛灿佳)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>热水卡充值</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -374,10 +274,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备（谢如鹏，辛灿佳，谢涛）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>洗衣机里的蜜汁200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -398,9 +294,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备（辛灿佳）</t>
-  </si>
-  <si>
     <t>打印</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -421,19 +314,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍费储备（辛灿佳，谢涛）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>糖</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>肥宅快乐水+绿豆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍费储备（谢如鹏，夏浩，谢涛）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -508,9 +393,6 @@
     <t>2017.12.14</t>
   </si>
   <si>
-    <t>宿舍费储备（谢涛，辛灿佳.43）</t>
-  </si>
-  <si>
     <t>2017.12.21</t>
   </si>
   <si>
@@ -849,6 +731,81 @@
   <si>
     <t>收入/支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏浩，谢如鹏</t>
+  </si>
+  <si>
+    <t>谢涛</t>
+  </si>
+  <si>
+    <t>辛灿佳</t>
+  </si>
+  <si>
+    <t>夏浩，谢涛</t>
+  </si>
+  <si>
+    <t>谢如鹏</t>
+  </si>
+  <si>
+    <t>谢如鹏，夏浩，谢涛</t>
+  </si>
+  <si>
+    <t>辛灿佳，谢涛</t>
+  </si>
+  <si>
+    <t>谢如鹏，夏浩</t>
+  </si>
+  <si>
+    <t>辛灿佳，夏浩</t>
+  </si>
+  <si>
+    <t>谢如鹏，辛灿佳，谢涛</t>
+  </si>
+  <si>
+    <t>谢涛，夏浩</t>
+  </si>
+  <si>
+    <t>夏浩，辛灿佳</t>
+  </si>
+  <si>
+    <t>夏浩，辛灿佳，谢涛</t>
+  </si>
+  <si>
+    <t>谢涛，谢如鹏，夏浩</t>
+  </si>
+  <si>
+    <t>夏浩，谢涛，辛灿佳</t>
+  </si>
+  <si>
+    <t>谢涛，辛灿佳</t>
+  </si>
+  <si>
+    <t>谢涛，辛灿佳，夏浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人夜宵</t>
+  </si>
+  <si>
+    <t>个人夜宵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏浩，谢如鹏,谢涛</t>
+  </si>
+  <si>
+    <t>夏浩，谢如鹏，谢涛</t>
+  </si>
+  <si>
+    <t>夏浩，谢如鹏，谢涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍费储备</t>
+  </si>
+  <si>
+    <t>加买泡面</t>
   </si>
 </sst>
 </file>
@@ -1303,21 +1260,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1334,13 +1293,13 @@
         <v>200</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1307,13 @@
         <v>-38</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1321,13 @@
         <v>-25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1335,13 @@
         <v>-15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,13 +1349,13 @@
         <v>-50</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,13 +1363,13 @@
         <v>-100</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1377,13 @@
         <v>-4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1391,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,13 +1405,13 @@
         <v>50</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,13 +1419,13 @@
         <v>-100</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,13 +1433,13 @@
         <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1488,13 +1447,13 @@
         <v>-60</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,13 +1461,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,13 +1475,13 @@
         <v>-100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,13 +1489,13 @@
         <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,13 +1503,13 @@
         <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,13 +1517,13 @@
         <v>-84</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,13 +1531,13 @@
         <v>-20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,13 +1545,13 @@
         <v>-16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,13 +1559,13 @@
         <v>-43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,13 +1573,13 @@
         <v>-20.5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,461 +1587,461 @@
         <v>100</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>-100</v>
+      <c r="A25" s="3">
+        <v>50</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>20</v>
+        <v>84</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>-8</v>
+        <v>-100</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>-52.8</v>
+        <v>-8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>-9</v>
+        <v>-52.8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
+        <v>-9</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>-4</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="B30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>150</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>-60</v>
-      </c>
       <c r="B31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>26</v>
+        <v>88</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>-20.399999999999999</v>
+        <v>-60</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>-47</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="B34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>47</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>-7.5</v>
-      </c>
       <c r="B35" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>29</v>
+        <v>90</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
+        <v>-7.5</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>-50</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>250</v>
-      </c>
       <c r="B37" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>-100</v>
+      <c r="A38" s="3">
+        <v>100</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>-142</v>
+      <c r="A39" s="3">
+        <v>150</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>31</v>
+        <v>92</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>-16</v>
+        <v>-100</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>150</v>
+      <c r="A41" s="4">
+        <v>-142</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>25</v>
+        <v>94</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>-0.8</v>
+        <v>-16</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>150</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>-9</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>34</v>
+      <c r="C43" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>-4.5</v>
+        <v>-0.8</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>-5.8</v>
+        <v>-4.5</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>-60</v>
+        <v>-4</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>-5</v>
+        <v>-5.8</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>150</v>
+      <c r="A49" s="4">
+        <v>-60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>39</v>
+        <v>100</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>-12.5</v>
+        <v>-5</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>-6</v>
+      <c r="A51" s="3">
+        <v>150</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>-13.5</v>
+        <v>-12.5</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>-100</v>
+        <v>-6</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>-10</v>
+        <v>-13.5</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>-9</v>
+        <v>-100</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2090,69 +2049,69 @@
         <v>-10</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
+        <v>-8</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>-9</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>200</v>
-      </c>
       <c r="B60" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>47</v>
+        <v>109</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,434 +2119,434 @@
         <v>-9</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>-24.9</v>
+      <c r="A62" s="3">
+        <v>200</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>48</v>
+        <v>110</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>-100</v>
+        <v>-24.9</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>-12.5</v>
+        <v>-7</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>50</v>
+        <v>113</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>-19.8</v>
+        <v>-100</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>-5</v>
+        <v>-12.5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>52</v>
+        <v>115</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>-7.5</v>
+        <v>-19.8</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>50</v>
+      <c r="A69" s="4">
+        <v>-5</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>-8</v>
+        <v>-7.5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>-12.5</v>
+      <c r="A71" s="3">
+        <v>50</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>100</v>
+      <c r="A73" s="4">
+        <v>-12.5</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>57</v>
+        <v>120</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>-11.1</v>
+        <v>-12</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>-71.5</v>
+      <c r="A75" s="3">
+        <v>100</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>59</v>
+        <v>122</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
+        <v>-11.1</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>-71.5</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <f>-13.5*2</f>
         <v>-27</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="B78" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>50</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="B79" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>-50</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>-3</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>-50</v>
-      </c>
       <c r="B80" s="5" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>-19.2</v>
+        <v>-3</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
+        <v>-50</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>-19.2</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>-16.5</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="B84" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>150</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="B85" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>34.5</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>-9</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>-45</v>
-      </c>
       <c r="B86" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>20</v>
+        <v>131</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D86" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>-200</v>
+        <v>-9</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>30</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>165</v>
+      <c r="A88" s="4">
+        <v>-45</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>-30</v>
+        <v>-200</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>50</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="D90" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>100</v>
+        <v>-30</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>68</v>
+        <v>135</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,181 +2554,181 @@
         <v>50</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
+        <v>100</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>50</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>-20</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>-9</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>50</v>
-      </c>
       <c r="B95" s="5" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
+        <v>-9</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>50</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>-50</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>-4.5</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>100</v>
-      </c>
       <c r="B98" s="5" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>100</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>-100</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D99" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="B101" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
         <v>-9.9</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="B102" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D101" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="B103" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>50</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D102" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>-100</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D103" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>-24.8</v>
-      </c>
       <c r="B104" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>60</v>
+        <v>147</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,307 +2736,307 @@
         <v>-100</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106" s="4">
+        <v>-24.8</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>-100</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>100</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D107" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
-        <v>-13.1</v>
-      </c>
       <c r="B108" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>22</v>
+        <v>151</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D108" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>30</v>
+        <v>13.1</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>73</v>
+        <v>152</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D109" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>-30</v>
+        <v>-13.1</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
-        <v>-18.2</v>
+      <c r="A111" s="3">
+        <v>30</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>22</v>
+        <v>152</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>150</v>
+        <v>-30</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D112" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>-60</v>
+        <v>-18.2</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>-60</v>
+        <v>150</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="D114" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>-9.9</v>
+        <v>-60</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D115" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>200</v>
+      <c r="A116" s="4">
+        <v>-60</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D116" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>-100</v>
+        <v>-9.9</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
-        <v>-50</v>
+      <c r="A118" s="3">
+        <v>200</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D118" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D119" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>-17.899999999999999</v>
+        <v>-50</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D121" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>-16</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D122" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>-27</v>
+        <v>-8</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D123" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
+        <v>-16</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>-27</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
         <v>-100</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
-        <v>50</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D125" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
-        <v>100</v>
-      </c>
       <c r="B126" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3085,83 +3044,83 @@
         <v>50</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" t="s">
         <v>199</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D127" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>-30</v>
+      <c r="A128" s="3">
+        <v>100</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>50</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D129" t="s">
         <v>200</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D128" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>-9.9</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D129" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>-7.2</v>
+        <v>-30</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D130" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>-30</v>
+        <v>-9.9</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>74</v>
+        <v>171</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D131" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>-10</v>
+        <v>-7.2</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>72</v>
+        <v>172</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D132" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3169,433 +3128,461 @@
         <v>-30</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D133" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
-        <v>50</v>
+      <c r="A134" s="4">
+        <v>-10</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>65</v>
+        <v>174</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>-13.5</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>60</v>
+        <v>-30</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="D135" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
-        <v>-30</v>
+      <c r="A136" s="3">
+        <v>50</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="D136" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
+        <v>-13.5</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>-30</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D138" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>-7</v>
       </c>
-      <c r="B137" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D137" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="B139" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>50</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="B140" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D140" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>100</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D139" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
-        <v>-100</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
-        <v>-5.8</v>
-      </c>
       <c r="B141" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>87</v>
+        <v>177</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="D141" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>-6.2</v>
+      <c r="A143" s="4">
+        <v>-5.8</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D143" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="A144" s="4">
+        <v>-50</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>-6.2</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>100</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D144" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+      <c r="B146" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D146" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>100</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D145" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>-100</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>-5</v>
-      </c>
       <c r="B147" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>89</v>
+        <v>182</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="D147" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>-16</v>
+        <v>-100</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>-10.9</v>
+        <v>-5</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>60</v>
+        <v>184</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D149" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>-30</v>
+        <v>-16</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D150" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>150</v>
+        <v>-10.9</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D152" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>-7</v>
+        <v>150</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="D153" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>-30.3</v>
+        <v>-100</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D154" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>-50</v>
+        <v>-7</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D155" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>50</v>
+      <c r="A156" s="2">
+        <v>-30.3</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D156" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>79</v>
+        <v>-50</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D157" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="D158" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>-13</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>224</v>
+        <v>-0.2</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D159" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>-0.4</v>
+      <c r="A160" s="1">
+        <v>150</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="D160" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>95</v>
+        <v>194</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D161" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>50</v>
+      <c r="A162" s="2">
+        <v>-0.4</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D162" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
+        <v>-17</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D163" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>50</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D164" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
         <v>-50</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D163" t="s">
-        <v>96</v>
+      <c r="B165" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
